--- a/biology/Zoologie/Alsophylax/Alsophylax.xlsx
+++ b/biology/Zoologie/Alsophylax/Alsophylax.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alsophylax est un genre de geckos de la famille des Gekkonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alsophylax est un genre de geckos de la famille des Gekkonidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Asie centrale, en Asie de l'Est et en Russie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Asie centrale, en Asie de l'Est et en Russie.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des geckos arboricoles.
 </t>
@@ -573,11 +589,13 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (25 septembre 2023)[2] :
-Alsophylax emilia Nazarov et al., 2023[3]
-Alsophylax ferganensis Nazarov et al., 2023[3]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (25 septembre 2023) :
+Alsophylax emilia Nazarov et al., 2023
+Alsophylax ferganensis Nazarov et al., 2023
 Alsophylax laevis Nikolsky, 1907
 Alsophylax loricatus Strauch, 1887
 Alsophylax pipiens (Pallas, 1827)
@@ -611,9 +629,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de ce genre vient du grec αλσος « bois », et de ψυλαξ, « gardien », soit « le gardien des bois » en référence aux mœurs arboricoles de ces espèces[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de ce genre vient du grec αλσος « bois », et de ψυλαξ, « gardien », soit « le gardien des bois » en référence aux mœurs arboricoles de ces espèces.
 </t>
         </is>
       </c>
@@ -642,7 +662,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce Lacerta pipiens Pallas, 1827 est l'espèce type de ce genre.
 </t>
@@ -673,7 +695,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Fitzinger, 1843 : Systema Reptilium, fasciculus primus, Amblyglossae. Braumüller et Seidel, Wien, p. 1-106 (texte intégral).</t>
         </is>
